--- a/planTest/planTest.xlsx
+++ b/planTest/planTest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/DEV/openclassroom/Projets/Projet5/planTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6BAC57-82F4-304B-9205-556D535B10E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C86A83-E4F5-EE4D-AF14-97D0A79A42D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25700" windowHeight="21100" xr2:uid="{CF181693-CA02-DC40-B538-D94E1BDBDEB2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -64,15 +64,9 @@
     <t>OK</t>
   </si>
   <si>
-    <t>product.js</t>
-  </si>
-  <si>
     <t>Sélectionner une couleur ainsi qu'une quantité</t>
   </si>
   <si>
-    <t>cart.js</t>
-  </si>
-  <si>
     <t>Afficher les éléments qui ont été mit dans le panier sur la page panier</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
   </si>
   <si>
     <t>Cliquer sur "commmander"</t>
-  </si>
-  <si>
-    <t>cart.js/confirmation.js</t>
   </si>
   <si>
     <t xml:space="preserve">Valider la commande et affichage du numéro de commande </t>
@@ -553,8 +544,8 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -601,172 +592,172 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="120" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="100" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="40" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="120" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="100" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="40" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>9</v>
